--- a/Dataset/update_train_format2.xlsx
+++ b/Dataset/update_train_format2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,3526 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3677</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>#903312:1095:5434:1102:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2424</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>#656693:1112:2413:1104:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4475</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>#165123:1553:3174:1102:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1663</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>#1079147:389:4874:0828:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>606</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>#288576:1142:376:1108:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4344</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>#907167:302:7769:1102:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4057</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>#545045:643:7843:1111:0#545045:643:7843:1111:0#700398:643:7843:1111:0#356018:643:7843:1111:0#356018:643:7843:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2223</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>#733254:1208:3273:1010:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3213</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>#270278:389:2651:1016:0#415077:389:2651:1016:0#325632:389:2651:1016:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4522</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>#843380:1095:4977:1102:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1708</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>#49881:1112:2970:1104:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3773</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>#980005:656:3718:0930:0#920197:656:3718:0930:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4802</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>#214753:1553:988:1102:0#144081:1095:988:1102:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2506</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>#808026:229:7240:0710:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>742</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>#679903:1142:1016:1108:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3878</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>#1029093:1142:5978:1108:0#558975:1142:5978:1108:0#558975:1142:5978:1108:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2856</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>#332376:737:1228:1102:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>63</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>#73456:389:2509:0928:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3906</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>#315990:1577:6268:0531:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2387</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>#801820:1095:6040:1102:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2149</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>#1012885:1142:3826:1108:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1393</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>#214590:748:4705:1102:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>298368</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2903</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>#1024996:1142:4887:1108:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36480</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3213</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>#496261:389:2651:1101:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36480</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>231</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>#678722:4:6065:1103:0#1111270:69:6065:1103:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36480</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3836</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>#298366:117:6170:1111:0#298366:117:6170:1111:2#298366:117:6170:1111:0#298366:117:6170:1111:0#298366:117:6170:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36480</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4730</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>#1074504:117:6170:1111:2#1074504:117:6170:1111:0#1074504:117:6170:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36480</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3932</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>#931112:1553:2793:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36480</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1760</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>#801802:602:2197:0914:2#801802:602:2197:0914:0#1040135:1213:2197:0914:0#713353:602:2197:1111:0#1099843:602:2197:1111:0#147751:602:2197:1111:0#362723:602:2197:1111:0#951557:602:2197:1111:0#647562:602:2197:1111:0#293882:602:2197:1111:0#923526:602:2197:1111:2#923526:602:2197:1111:0#1030870:602:2197:1111:0#923526:602:2197:1111:0#923526:602:2197:1111:0#1030870:602:2197:1111:0#951557:602:2197:1111:0#369897:602:2197:1111:0#923526:602:2197:1111:0#362723:602:2197:1111:0#929429:602:2197:1111:0#689936:602:2197:1111:0#528905:602:2197:1111:0#923526:602:2197:1111:0#923526:602:2197:1111:0#681926:602:2197:1111:0#389374:602:2197:1008:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36480</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2278</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>#659231:962:6257:0620:0#659231:962:6257:0620:2#208565:1147:6257:0604:0#243343:1147:6257:0604:2#243343:1147:6257:0604:0#208565:1147:6257:0604:0#732875:614:6257:0604:0#208565:1147:6257:0604:0#450478:614:6257:0604:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36480</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3368</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>#912037:1603:5603:1007:0#370979:1603:5603:1007:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36480</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1961</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>#80276:1147:2394:0604:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36480</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4509</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>#1021556:1142:4365:1030:0#153451:1142:4365:1030:0#335026:389:4365:1030:0#722242:389:4365:1030:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36480</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3006</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>#495313:1603:1954:1007:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36480</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2385</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>#162276:614:5795:1111:0#1059899:614:5795:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2935</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>#526229:1188:6750:1111:0#526229:1188:6750:1111:2#526229:1188:6750:1109:3#526229:1188:6750:1109:0#526229:1188:6750:1109:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4062</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>#170255:612:3046:1029:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1052</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>#837959:737:4781:1007:0#777950:737:4781:1007:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4545</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>#336821:662:6102:1010:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>770</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>#757277:612:3354:1029:0#757277:612:3354:1029:0#757277:612:3354:1029:3#</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3339</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>#349852:352:7984:1006:0#373566:352:7526:1006:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4879</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>#66979:662:6612:1010:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4683</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>#665722:1095:7123:0908:0#665722:1095:7123:0908:3#</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>875</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>#253408:737:773:0523:0#253408:737:773:0523:3#</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>732</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>#178608:656:3041:1007:0#178608:656:3041:1007:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2958</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>#719673:662:6444:0605:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4044</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>#667301:154:82:0908:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2091</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>#220998:834:6740:0827:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3442</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>#994350:737:19:0921:3#994350:737:19:0921:0#173689:737:19:1007:0#173689:737:19:1007:0#173689:737:19:1007:2#173689:737:19:1007:0#744219:737:19:1007:0#744219:737:19:1007:3#173689:737:19:1007:0#173689:737:19:1007:0#173689:737:19:1007:3#173689:737:19:1007:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2168</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>#701811:389:5527:1108:0#869838:662:5527:1010:0#368831:389:5527:1108:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2333</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>#897003:662:3950:1010:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3887</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>#774465:1142:48:1109:0#774465:1142:48:1109:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>906</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>#195651:662:6053:0908:0#195651:662:6053:0908:3#195651:662:6053:0908:0#195651:662:6053:0908:0#195651:662:6053:0909:0#1072810:662:6053:0909:0#199534:662:6053:0909:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3349</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>#724290:662:3358:1010:0#1051701:662:3358:1010:3#1051701:662:3358:1010:0#1051701:662:3358:1010:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3139</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>#166235:601:549:1111:0#166235:601:549:1108:3#</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4959</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>#997127:737:5849:1006:0#997127:737:5849:1006:3#997127:737:5849:1006:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1240</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>#184736:154:1260:0908:0#184736:154:1260:0908:0#184736:154:1260:0908:3#184736:154:1260:0908:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3970</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>#477957:662:125:1012:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2099</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>#964601:555:5558:1111:0#719581:962:5558:0911:2#719581:962:5558:0911:0#719581:962:5558:0911:0#719581:962:5558:0911:0#719581:962:5558:0911:3#964601:555:5558:1111:2#964601:555:5558:1022:0#964601:555:5558:1022:3#964601:555:5558:1022:0#964601:555:5558:1022:0#964601:555:5558:1022:0#964601:555:5558:1108:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4941</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>#655313:656:6233:1007:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>461</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>#483447:662:1859:1012:0#455936:662:1859:1012:0#455936:662:1859:1012:0#455936:662:1859:1012:3#455936:662:1859:1012:0#455936:662:1859:1012:0#483447:662:1859:1012:3#483447:662:1859:1010:0#233418:662:1859:0909:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1742</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>#962700:464:7885:1111:0#962700:464:7885:1111:3#</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>299136</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>331</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>#726421:1142:4094:1030:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>974</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>#776582:1095:3738:0703:0#26435:1553:3738:1104:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3760</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>#927271:1505:3738:0724:0#888387:1604:3738:0724:0#54546:1604:3738:0724:0#268268:1577:3738:0724:0#351273:992:3738:1111:2#290893:1142:3738:1111:0#351273:992:3738:1111:0#351273:992:3738:1111:0#351273:992:3738:1111:0#902380:662:3738:0724:0#1098279:1397:3738:0724:0#591332:1389:3738:0724:0#785851:1389:3738:0724:0#632107:662:3738:0724:0#461480:662:3738:0724:0#68555:662:3738:0724:0#299456:992:3738:0724:0#1026886:662:3738:0724:0#526812:662:3738:0724:0#519110:1397:3738:0724:0#574295:1397:3738:0724:0#388059:662:3738:0724:0#1047429:662:3738:0724:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3511</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>#1061510:1553:4254:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1796</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>#192164:300:1246:1104:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>643</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>#217375:1397:968:0703:0#875368:1591:968:0703:0#947637:1397:968:0703:0#60531:1604:968:0703:0#845048:1397:968:0703:0#1107187:1095:968:0703:0#393446:821:968:0703:0#947637:1397:968:0703:0#366498:662:968:0724:0#81392:1397:968:0703:0#366498:662:968:0703:0#1068472:1397:968:0703:0#898048:1397:968:0703:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2465</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>#1038867:1438:4505:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2603</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>#583898:992:7030:1104:0#952150:992:7030:1104:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>951</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>#796590:992:4636:1104:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1245</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>#89231:656:321:1101:0#318057:656:321:1101:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2568</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>#711073:656:2921:1101:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3623</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>#89885:992:2206:1022:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2615</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>#359800:766:3172:1101:0#359800:766:3172:1111:2#359800:766:3172:1103:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>606</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>#260090:1095:376:1103:0#653397:387:376:1103:0#50253:1553:376:1103:0#673593:662:376:1103:0#579602:662:376:1103:0#766105:389:376:1103:0#1091892:389:376:1103:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>172</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>#985506:154:7783:1101:0#937997:389:7783:1104:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>848</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>#801687:1429:1221:1104:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4173</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>#487236:389:5376:1103:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4320</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>#569853:997:2830:1027:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3659</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>#438726:1591:3103:0703:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3661</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>#262291:962:1508:0703:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3248</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>#33537:612:4700:1104:0#382312:389:4700:1104:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>863</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>#174030:656:3091:1002:0#371131:656:6750:1002:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1885</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>#160695:1095:6560:0724:0#940925:1095:6560:0724:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3670</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>#1066877:596:1232:1028:0#1066877:596:1232:1024:0#1066877:596:1232:1024:2#</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>331</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>#591770:1238:4094:0724:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>478</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>#479676:992:4668:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4044</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>#617878:389:82:1103:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1503</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>#225941:1349:3650:0531:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1580</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>#87201:997:8112:1027:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>598</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>#123659:1188:8351:0617:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1340</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>#75452:662:1981:0724:0#206434:662:1981:0724:0#1004756:662:1981:0724:0#2442:1095:1981:0724:0#206434:662:1981:0724:0#41999:1397:1981:0724:0#1004756:662:1981:0724:0#75452:662:1981:0724:0#1004756:662:1981:0724:0#1004756:662:1981:0724:0#1004756:662:1981:0724:0#206434:662:1981:0724:0#490948:662:1981:0724:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2047</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>#907538:1577:1901:0822:0#1096129:1505:1901:0822:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>444</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>#651029:1357:2731:0709:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>416</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>#377050:1238:4014:0709:0#274748:1604:4014:0709:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3927</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>#636279:992:1710:1104:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3689</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>#700135:997:527:1101:0#672888:997:527:1027:0#689484:997:527:1027:0#446610:992:527:1027:0#700135:997:527:1027:0#446610:992:527:1027:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1645</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>#978802:1450:3376:1104:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>37248</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3578</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>#363972:656:3091:1111:0#477777:656:3091:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2371</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>#61518:1118:6065:0921:0#61518:1118:6065:0921:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4847</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>#54018:662:4276:1103:3#54018:662:4276:1103:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3409</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>#729209:1467:5163:1020:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2765</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>#784043:247:7218:1111:0#756461:120:7218:1111:0#1026074:962:7218:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2968</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>#70126:184:1457:0814:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4235</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>#33167:184:5780:1103:0#361471:184:5780:1103:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>166</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>#330320:184:849:0530:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1163</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>#200572:664:7629:1023:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>729</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>#461716:229:5313:1022:0#461716:229:5313:1022:2#388769:1034:5313:1022:2#388769:1034:5313:1018:3#461716:229:5313:1024:0#388769:1034:5313:1024:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4602</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>#724318:184:459:0921:0#795564:184:459:0616:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>#857258:555:6187:1023:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4945</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>#105649:177:7069:1002:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2542</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>#1030174:1397:1685:1103:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2031</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>#783252:1469:2738:0921:0#717309:883:2446:0921:0#717309:883:2446:0922:0#717309:883:2446:0922:2#151150:883:2446:0922:0#717309:883:2446:0922:0#717309:883:2446:0924:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1489</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>#449003:883:666:0922:0#449003:883:666:0922:0#449003:883:666:0922:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4919</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>#428339:614:5795:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1469</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>#1004098:883:2446:0922:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1180</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>#328546:177:7069:1002:3#</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1066</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>#266912:639:5252:0520:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2032</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>#276764:184:4367:0530:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>968</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>#210410:1505:5600:1030:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3625</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>#789501:320:1623:1022:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>34</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>#871878:555:813:1018:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3821</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>#1069822:500:6607:1018:0#1069822:500:6607:1018:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1173</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>#1093107:962:4231:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1474</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>#427828:614:7052:0714:2#854562:614:7052:0714:0#222558:119:7052:0714:2#733851:120:7052:0714:0#733851:120:7052:0714:2#450841:1606:7052:0714:0#450841:1606:7052:0714:0#427828:614:7052:0714:0#854562:614:7052:0714:0#222558:119:7052:0714:0#854562:614:7052:0714:0#854562:614:7052:0714:2#222558:119:7052:0716:0#427828:614:7052:0910:2#450841:1606:7052:0814:0#427828:614:7052:0911:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2482</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>#149411:1172:7993:1029:3#909445:1580:7993:1111:0#1087008:247:7993:1111:0#439125:664:7993:1111:0#209821:614:7993:1111:2#909445:1580:7993:1111:2#678318:1147:7993:1111:0#909445:1580:7993:1111:0#209821:614:7993:1111:0#909445:1580:7993:1111:0#209821:614:7993:1111:0#909445:1580:7993:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>103296</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1480</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>#559040:177:7069:1002:0#559040:177:7069:1002:3#2516:177:7069:1002:3#822441:177:7069:0827:3#</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3941</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>#918381:1047:4777:0729:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2560</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>#673647:946:2116:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>523</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>#363879:464:3312:0618:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>184</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>#783997:1349:1360:1029:0#783997:1349:1360:1016:0#94609:1349:1360:1016:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2235</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>#798375:821:744:0820:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>#50653:692:1287:0728:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2781</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>#140069:1467:3305:1003:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4580</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>#874373:699:6916:0911:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4615</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>#261763:713:1973:0819:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2987</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>#256423:464:1779:0903:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4317</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>#123850:1047:6695:0729:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>3834</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>#46059:1349:1360:0620:0#9296:1190:1360:0627:0#46059:1349:1360:0627:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4032</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>#848415:1467:5651:0618:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>#648981:1623:1219:0715:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>3395</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>#194506:407:3803:1017:0#194506:407:3803:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>774</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>#169144:1349:7279:1008:0#1038972:1118:7279:1008:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1544</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>#822579:1326:654:1009:0#986978:1326:654:1009:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>3637</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>#742632:464:5530:0906:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1348</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>#197966:481:620:0612:0#197966:481:620:0612:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4218</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>#175565:1467:3700:1003:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2318</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>#143701:106:7319:0618:2#143701:106:7319:0618:0#143701:106:7319:0619:0#143701:106:7319:0619:0#143701:106:7319:0619:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1140</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>#826253:1326:2890:0927:0#648693:1326:2890:0927:0#524807:1326:2890:0927:0#924675:737:2890:0927:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2064</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>#570309:776:3888:1017:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>3289</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>#290557:1271:5882:0730:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1742</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>#607589:464:7885:1111:2#436252:464:7885:1111:2#</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2743</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>#1063422:1118:4475:1017:0#1063422:1118:4475:1008:0#161703:1118:4475:1008:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>167</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>#16309:1047:5900:0715:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>710</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>#375571:1467:2016:0917:0#375571:1467:2016:0917:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>941</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>#323485:1349:1360:0627:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2468</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>#786562:276:1392:1111:0#786562:276:1392:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>299904</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>4424</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>#1044167:692:1287:0728:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>38016</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>919</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>#1050851:389:8000:0804:0#</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
